--- a/Base_de_dados/base_de_dados.xlsx
+++ b/Base_de_dados/base_de_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thales.ferraz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{053F7B99-504A-4653-BD56-8C8FA5DAD7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6145B1D-BB3E-4C65-9EBD-60D79D2A03E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{945975C9-C52B-4A11-A61F-D3C18C17B3F5}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2213456</v>
+        <v>84210</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>2345678</v>
+        <v>95730</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2489123</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2667890</v>
+        <v>87450</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2876543</v>
+        <v>102780</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>3098765</v>
+        <v>98720</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>3176543</v>
+        <v>105360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>3082345</v>
+        <v>92670</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2891234</v>
+        <v>87690</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>2675432</v>
+        <v>94420</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2498765</v>
+        <v>101530</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2334567</v>
+        <v>91200</v>
       </c>
     </row>
   </sheetData>
